--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_4_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_4_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.2900000000002</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001505276615894835</v>
+        <v>0.0004705476899340422</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001505276615894835</v>
+        <v>0.0004705476899340422</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>50.52886001086637</v>
+        <v>48.2156695533307</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[20.10379259612924, 80.9539274256035]</t>
+          <t>[19.331988134786585, 77.09935097187481]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001667186356512085</v>
+        <v>0.001586487413218762</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001667186356512085</v>
+        <v>0.001586487413218762</v>
       </c>
       <c r="P2" t="n">
-        <v>1.540921321580579</v>
+        <v>2.081816152829272</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 2.333395144107734]</t>
+          <t>[1.452868674633116, 2.7107636310254275]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0003023358568390311</v>
+        <v>3.185510855097107e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0003023358568390311</v>
+        <v>3.185510855097107e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>70.35105214331583</v>
+        <v>70.47216119945074</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[52.0876207884076, 88.61448349822405]</t>
+          <t>[54.507361001300836, 86.43696139760064]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.764873188875754e-10</v>
+        <v>1.809019600784723e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>7.764873188875754e-10</v>
+        <v>1.809019600784723e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.57823823823839</v>
+        <v>15.64684684684699</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.64076076076089</v>
+        <v>13.30450450450463</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.5157157157159</v>
+        <v>17.98918918918936</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.2900000000002</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.30505832874173e-06</v>
+        <v>0.0008698441710963678</v>
       </c>
       <c r="I3" t="n">
-        <v>5.30505832874173e-06</v>
+        <v>0.0008698441710963678</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>63.31736638497832</v>
+        <v>51.13748879053259</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[35.48309811319261, 91.15163465676403]</t>
+          <t>[18.45151923564255, 83.82345834542262]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.650832281842931e-05</v>
+        <v>0.00289127774284248</v>
       </c>
       <c r="O3" t="n">
-        <v>3.650832281842931e-05</v>
+        <v>0.00289127774284248</v>
       </c>
       <c r="P3" t="n">
-        <v>1.918289808498272</v>
+        <v>1.867974010242579</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.4277107755052727, 2.4088688414912722]</t>
+          <t>[1.1761317842268086, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.232090316553695e-10</v>
+        <v>2.112949634813788e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>5.232090316553695e-10</v>
+        <v>2.112949634813788e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>75.61005931570622</v>
+        <v>70.55929907617387</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[59.88110379449142, 91.33901483692102]</t>
+          <t>[52.84045278286165, 88.2781453694861]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.417310713236475e-12</v>
+        <v>3.218456612330556e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.417310713236475e-12</v>
+        <v>3.218456612330556e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>16.17943943943958</v>
+        <v>16.4432432432434</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.36100100100113</v>
+        <v>13.8666666666668</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.99787787787803</v>
+        <v>19.01981981982</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.2900000000002</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004544392373394102</v>
+        <v>0.02954131888024802</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004544392373394102</v>
+        <v>0.02954131888024802</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.5600830166738</v>
+        <v>32.50817241462209</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[9.06086280168681, 72.05930323166079]</t>
+          <t>[-0.2772523798346924, 65.29359720907888]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01277484287513531</v>
+        <v>0.05188640582727944</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01277484287513531</v>
+        <v>0.05188640582727944</v>
       </c>
       <c r="P4" t="n">
-        <v>2.207605648468503</v>
+        <v>2.119553001521042</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 2.949763672739966]</t>
+          <t>[0.786184347745194, 3.4529216552968895]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.21877339892751e-07</v>
+        <v>0.00250831651464245</v>
       </c>
       <c r="S4" t="n">
-        <v>3.21877339892751e-07</v>
+        <v>0.00250831651464245</v>
       </c>
       <c r="T4" t="n">
-        <v>54.52817719588867</v>
+        <v>68.72106727633715</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[38.04416653695634, 71.012187854821]</t>
+          <t>[52.04372151993737, 85.39841303273693]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.231003997683501e-08</v>
+        <v>1.269153671046297e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>3.231003997683501e-08</v>
+        <v>1.269153671046297e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>15.10702702702716</v>
+        <v>15.50630630630645</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.35605605605616</v>
+        <v>10.54054054054064</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.85799799799815</v>
+        <v>20.47207207207226</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.2900000000002</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003183655155301612</v>
+        <v>0.001994370665514666</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003183655155301612</v>
+        <v>0.001994370665514666</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>38.13548459564296</v>
+        <v>50.96092381659204</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[10.75785070064228, 65.51311849064365]</t>
+          <t>[15.592183256059947, 86.32966437712412]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.007394270545171278</v>
+        <v>0.005721876538554715</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007394270545171278</v>
+        <v>0.005721876538554715</v>
       </c>
       <c r="P5" t="n">
-        <v>1.918289808498272</v>
+        <v>2.283079345852042</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.1132370364071953, 2.7233425805893496]</t>
+          <t>[1.628973968528041, 2.937184723176043]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.789439034793894e-05</v>
+        <v>9.19811427024797e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>1.789439034793894e-05</v>
+        <v>9.19811427024797e-09</v>
       </c>
       <c r="T5" t="n">
-        <v>56.91912300243393</v>
+        <v>69.6206683279826</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[42.06966611802659, 71.76857988684128]</t>
+          <t>[50.47295207533702, 88.76838458062818]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>8.830631781364673e-10</v>
+        <v>3.387468749949107e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>8.830631781364673e-10</v>
+        <v>3.387468749949107e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>16.17943943943958</v>
+        <v>14.89729729729744</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.19533533533545</v>
+        <v>12.46126126126138</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.1635435435437</v>
+        <v>17.3333333333335</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.2900000000002</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007453806694092124</v>
+        <v>1.029253295481425e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0007453806694092124</v>
+        <v>1.029253295481425e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>39.21938174267549</v>
+        <v>63.31950996972584</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[13.10448845379986, 65.33427503155112]</t>
+          <t>[35.05133423956423, 91.58768569988746]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.004101935878414009</v>
+        <v>4.585817210411847e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004101935878414009</v>
+        <v>4.585817210411847e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>2.610132034514042</v>
+        <v>2.371131992799504</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.9434477076261185, 3.2768163614019654]</t>
+          <t>[1.956026657190041, 2.786237328408966]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.063527375170906e-10</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="S6" t="n">
-        <v>5.063527375170906e-10</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="T6" t="n">
-        <v>50.0363790807856</v>
+        <v>66.03048803615665</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[36.378666895443615, 63.694091266127586]</t>
+          <t>[51.419790267881154, 80.64118580443215]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.804080745377746e-09</v>
+        <v>9.088285679581531e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>2.804080745377746e-09</v>
+        <v>9.088285679581531e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>13.61497497497509</v>
+        <v>14.56936936936951</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.14376376376386</v>
+        <v>13.02342342342354</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.08618618618632</v>
+        <v>16.11531531531547</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.2900000000002</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.956669677196434e-05</v>
+        <v>1.089786613794885e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>3.956669677196434e-05</v>
+        <v>1.089786613794885e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>56.1164636085259</v>
+        <v>62.02113542173853</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[25.646330029929352, 86.58659718712246]</t>
+          <t>[34.27120813532028, 89.77106270815679]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0005687085209427067</v>
+        <v>4.736578001085512e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0005687085209427067</v>
+        <v>4.736578001085512e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>2.496921488438734</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.9686056067539637, 3.025237370123504]</t>
+          <t>[2.3082372449798885, 3.364869008349428]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.379874075586486e-12</v>
+        <v>4.241051954068098e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>2.379874075586486e-12</v>
+        <v>4.241051954068098e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>75.37530826684738</v>
+        <v>71.96295382149904</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[59.50795819143633, 91.24265834225844]</t>
+          <t>[55.616587610932555, 88.30932003206553]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.037925384001937e-12</v>
+        <v>1.955480222193273e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.037925384001937e-12</v>
+        <v>1.955480222193273e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>14.03461461461474</v>
+        <v>12.83603603603616</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.0762962962964</v>
+        <v>10.86846846846857</v>
       </c>
       <c r="Z7" t="n">
-        <v>15.99293293293307</v>
+        <v>14.80360360360374</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.2900000000002</v>
+        <v>23.40000000000022</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.005858659353182194</v>
+        <v>0.01247986825177205</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005858659353182194</v>
+        <v>0.01247986825177205</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>35.4392313115284</v>
+        <v>37.91093042011876</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[9.147046915619072, 61.73141570743773]</t>
+          <t>[6.489391023234674, 69.33246981700285]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.00936991129831477</v>
+        <v>0.01914766578739835</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00936991129831477</v>
+        <v>0.01914766578739835</v>
       </c>
       <c r="P8" t="n">
-        <v>2.899447874484273</v>
+        <v>2.849132076228581</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.9182898084982707, 3.880605940470275]</t>
+          <t>[1.7547634641672718, 3.9435006882898906]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.679744524642814e-07</v>
+        <v>4.070964708002833e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>3.679744524642814e-07</v>
+        <v>4.070964708002833e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>64.91900927778816</v>
+        <v>62.64069322605636</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[49.879493533479845, 79.95852502209648]</t>
+          <t>[45.1171971598301, 80.16418929228261]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.444555751741518e-11</v>
+        <v>5.156276294826512e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.444555751741518e-11</v>
+        <v>5.156276294826512e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>12.54256256256267</v>
+        <v>12.78918918918931</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.905685685685762</v>
+        <v>8.713513513513593</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.17943943943958</v>
+        <v>16.86486486486502</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.58000000000009</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001382292738435487</v>
+        <v>1.375195074260205e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001382292738435487</v>
+        <v>1.375195074260205e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.59739653791785</v>
+        <v>70.60374902153667</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[23.261239640232873, 79.93355343560283]</t>
+          <t>[43.44273234789749, 97.76476569517585]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0006451072794646517</v>
+        <v>4.182617233894348e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0006451072794646517</v>
+        <v>4.182617233894348e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>2.836553126664658</v>
+        <v>-3.094421592725081</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.220184598032427, 3.4529216552968895]</t>
+          <t>[-3.5598427265902357, -2.6290004588599265]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.305755834683623e-12</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>5.305755834683623e-12</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>66.78036742915681</v>
+        <v>70.7951350183302</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[50.62443965834025, 82.93629519997337]</t>
+          <t>[53.90611837568764, 87.68415166097276]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.1644440967018e-10</v>
+        <v>7.889244812986362e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.1644440967018e-10</v>
+        <v>7.889244812986362e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>12.38622622622628</v>
+        <v>11.28300300300307</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.17117117117121</v>
+        <v>9.585965965966023</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.60128128128134</v>
+        <v>12.98004004004012</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.58000000000009</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000143164113116101</v>
+        <v>0.000167853920175598</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000143164113116101</v>
+        <v>0.000167853920175598</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>51.06402159465033</v>
+        <v>47.06135118178095</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[22.389180867782414, 79.73886232151824]</t>
+          <t>[20.325471664704466, 73.79723069885743]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0008213055542740655</v>
+        <v>0.0009286932663901126</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0008213055542740655</v>
+        <v>0.0009286932663901126</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.704474156243466</v>
+        <v>-2.830263651882697</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.3082637353117743, -2.1006845771751568]</t>
+          <t>[-3.4843690292066984, -2.176158274558695]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.181565956187569e-11</v>
+        <v>3.216449329102034e-11</v>
       </c>
       <c r="S10" t="n">
-        <v>1.181565956187569e-11</v>
+        <v>3.216449329102034e-11</v>
       </c>
       <c r="T10" t="n">
-        <v>56.57626828036398</v>
+        <v>64.5495674868622</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.757636650113405, 72.39489991061455]</t>
+          <t>[49.77115522076834, 79.32797975295605]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.089857424422917e-09</v>
+        <v>2.455191605577056e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>5.089857424422917e-09</v>
+        <v>2.455191605577056e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>9.719119119119158</v>
+        <v>10.31981981981988</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.549269269269299</v>
+        <v>7.934794794794842</v>
       </c>
       <c r="Z10" t="n">
-        <v>11.88896896896902</v>
+        <v>12.70484484484493</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.58000000000009</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002806558621786026</v>
+        <v>0.002744090536726529</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002806558621786026</v>
+        <v>0.002744090536726529</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>37.2349590833972</v>
+        <v>47.69740062186978</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[9.4199031670462, 65.0500149997482]</t>
+          <t>[13.295633439051386, 82.09916780468816]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.009831000351920194</v>
+        <v>0.007651762604040213</v>
       </c>
       <c r="O11" t="n">
-        <v>0.009831000351920194</v>
+        <v>0.007651762604040213</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.603842559732081</v>
+        <v>-2.880579450138389</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-3.33342163443962, -1.8742634850245419]</t>
+          <t>[-3.723369070921236, -2.0377898293555416]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>5.361999289021924e-09</v>
+        <v>1.514414482706172e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>5.361999289021924e-09</v>
+        <v>1.514414482706172e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>58.81252031927015</v>
+        <v>73.65710104374222</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.22699854371093, 73.39804209482938]</t>
+          <t>[54.86488297009977, 92.44931911738466]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.296638434984288e-10</v>
+        <v>4.913016660168523e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>2.296638434984288e-10</v>
+        <v>4.913016660168523e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>9.357477477477515</v>
+        <v>10.50328328328335</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.735575575575604</v>
+        <v>7.430270270270316</v>
       </c>
       <c r="Z11" t="n">
-        <v>11.97937937937943</v>
+        <v>13.57629629629638</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.58000000000009</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>6.519920828673698e-06</v>
+        <v>9.053289895533112e-09</v>
       </c>
       <c r="I12" t="n">
-        <v>6.519920828673698e-06</v>
+        <v>9.053289895533112e-09</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>69.67930379855606</v>
+        <v>73.4478441251764</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[36.376696764316335, 102.98191083279579]</t>
+          <t>[47.77793413697426, 99.11775411337854]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0001190368400814101</v>
+        <v>7.014566874019579e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0001190368400814101</v>
+        <v>7.014566874019579e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.062947728483388</v>
+        <v>-2.138421425866927</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.5409478119124653, -1.58494764505431]</t>
+          <t>[-2.503210963220696, -1.7736318885131577]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.462208297833058e-11</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="S12" t="n">
-        <v>3.462208297833058e-11</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="T12" t="n">
-        <v>69.44441241013662</v>
+        <v>63.67749138237657</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[52.102974199976536, 86.78585062029671]</t>
+          <t>[50.046714217478694, 77.30826854727445]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.767821527527303e-10</v>
+        <v>3.382849556032852e-12</v>
       </c>
       <c r="W12" t="n">
-        <v>2.767821527527303e-10</v>
+        <v>3.382849556032852e-12</v>
       </c>
       <c r="X12" t="n">
-        <v>7.413653653653684</v>
+        <v>7.797197197197248</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.695855855855879</v>
+        <v>6.467087087087132</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.131451451451488</v>
+        <v>9.127307307307364</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_4_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_4_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.40000000000022</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004705476899340422</v>
+        <v>7.08366478539002e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004705476899340422</v>
+        <v>7.08366478539002e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.2156695533307</v>
+        <v>42.92295079184386</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.331988134786585, 77.09935097187481]</t>
+          <t>[19.71860512867174, 66.12729645501598]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001586487413218762</v>
+        <v>0.0005413800493052623</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001586487413218762</v>
+        <v>0.0005413800493052623</v>
       </c>
       <c r="P2" t="n">
-        <v>2.081816152829272</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.452868674633116, 2.7107636310254275]</t>
+          <t>[0.5723422051585008, 1.7296055650394262]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.185510855097107e-08</v>
+        <v>0.0002287301591350488</v>
       </c>
       <c r="S2" t="n">
-        <v>3.185510855097107e-08</v>
+        <v>0.0002287301591350488</v>
       </c>
       <c r="T2" t="n">
-        <v>70.47216119945074</v>
+        <v>49.63309497353934</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[54.507361001300836, 86.43696139760064]</t>
+          <t>[37.28319198641165, 61.98299796066702]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.809019600784723e-11</v>
+        <v>2.512501318108207e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.809019600784723e-11</v>
+        <v>2.512501318108207e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>15.64684684684699</v>
+        <v>18.79495495495508</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.30450450450463</v>
+        <v>16.67591591591603</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.98918918918936</v>
+        <v>20.91399399399414</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.40000000000022</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008698441710963678</v>
+        <v>0.002202659783982042</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008698441710963678</v>
+        <v>0.002202659783982042</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>51.13748879053259</v>
+        <v>42.65362668317954</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[18.45151923564255, 83.82345834542262]</t>
+          <t>[11.898843508772543, 73.40840985758653]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.00289127774284248</v>
+        <v>0.007635061813292987</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00289127774284248</v>
+        <v>0.007635061813292987</v>
       </c>
       <c r="P3" t="n">
-        <v>1.867974010242579</v>
+        <v>2.06923720326535</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.1761317842268086, 2.5598162362583503]</t>
+          <t>[1.3522370781217337, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.112949634813788e-06</v>
+        <v>5.919695098555167e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>2.112949634813788e-06</v>
+        <v>5.919695098555167e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>70.55929907617387</v>
+        <v>65.98587082426133</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[52.84045278286165, 88.2781453694861]</t>
+          <t>[49.90975976475099, 82.06198188377167]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.218456612330556e-10</v>
+        <v>1.413025252361422e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>3.218456612330556e-10</v>
+        <v>1.413025252361422e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>16.4432432432434</v>
+        <v>15.43213213213224</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.8666666666668</v>
+        <v>12.80636636636645</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.01981981982</v>
+        <v>18.05789789789802</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.40000000000022</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02954131888024802</v>
+        <v>4.278735563201241e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02954131888024802</v>
+        <v>4.278735563201241e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>32.50817241462209</v>
+        <v>62.93704655172363</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.2772523798346924, 65.29359720907888]</t>
+          <t>[32.78144823454359, 93.09264486890366]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.05188640582727944</v>
+        <v>0.0001230793274324959</v>
       </c>
       <c r="O4" t="n">
-        <v>0.05188640582727944</v>
+        <v>0.0001230793274324959</v>
       </c>
       <c r="P4" t="n">
-        <v>2.119553001521042</v>
+        <v>1.779921363295118</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.786184347745194, 3.4529216552968895]</t>
+          <t>[1.2012896833546565, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.00250831651464245</v>
+        <v>1.599348573577686e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>0.00250831651464245</v>
+        <v>1.599348573577686e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>68.72106727633715</v>
+        <v>72.21028060415128</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[52.04372151993737, 85.39841303273693]</t>
+          <t>[54.71063099761818, 89.70993021068438]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.269153671046297e-10</v>
+        <v>1.221145407015456e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>1.269153671046297e-10</v>
+        <v>1.221145407015456e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>15.50630630630645</v>
+        <v>16.49165165165176</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.54054054054064</v>
+        <v>14.37261261261271</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.47207207207226</v>
+        <v>18.61069069069082</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.40000000000022</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001994370665514666</v>
+        <v>0.00045222104955156</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001994370665514666</v>
+        <v>0.00045222104955156</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>50.96092381659204</v>
+        <v>51.40668088455004</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[15.592183256059947, 86.32966437712412]</t>
+          <t>[20.11038317729863, 82.70297859180145]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.005721876538554715</v>
+        <v>0.001852184811992563</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005721876538554715</v>
+        <v>0.001852184811992563</v>
       </c>
       <c r="P5" t="n">
-        <v>2.283079345852042</v>
+        <v>2.584974135386196</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.628973968528041, 2.937184723176043]</t>
+          <t>[1.9560266571900415, 3.2139216135823503]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>9.19811427024797e-09</v>
+        <v>1.36273881068405e-10</v>
       </c>
       <c r="S5" t="n">
-        <v>9.19811427024797e-09</v>
+        <v>1.36273881068405e-10</v>
       </c>
       <c r="T5" t="n">
-        <v>69.6206683279826</v>
+        <v>75.86285714135659</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.47295207533702, 88.76838458062818]</t>
+          <t>[58.5977745786528, 93.12793970406037]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.387468749949107e-09</v>
+        <v>2.066302684511356e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.387468749949107e-09</v>
+        <v>2.066302684511356e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>14.89729729729744</v>
+        <v>13.54342342342352</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.46126126126138</v>
+        <v>11.2401201201202</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.3333333333335</v>
+        <v>15.84672672672684</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.40000000000022</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.029253295481425e-06</v>
+        <v>8.227161863905152e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.029253295481425e-06</v>
+        <v>8.227161863905152e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>63.31950996972584</v>
+        <v>61.60363616650386</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[35.05133423956423, 91.58768569988746]</t>
+          <t>[28.47318418879817, 94.73408814420955]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>4.585817210411847e-05</v>
+        <v>0.0005104586426947222</v>
       </c>
       <c r="O6" t="n">
-        <v>4.585817210411847e-05</v>
+        <v>0.0005104586426947222</v>
       </c>
       <c r="P6" t="n">
-        <v>2.371131992799504</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.956026657190041, 2.786237328408966]</t>
+          <t>[2.232763547596349, 3.4403427057329665]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>2.854827485521128e-12</v>
       </c>
       <c r="S6" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>2.854827485521128e-12</v>
       </c>
       <c r="T6" t="n">
-        <v>66.03048803615665</v>
+        <v>73.98853886328718</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[51.419790267881154, 80.64118580443215]</t>
+          <t>[55.50871932213347, 92.46835840444088]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>9.088285679581531e-12</v>
+        <v>2.782556407510128e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>9.088285679581531e-12</v>
+        <v>2.782556407510128e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>14.56936936936951</v>
+        <v>12.62210210210219</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.02342342342354</v>
+        <v>10.41093093093101</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.11531531531547</v>
+        <v>14.83327327327338</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.40000000000022</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.089786613794885e-05</v>
+        <v>0.009012078376457788</v>
       </c>
       <c r="I7" t="n">
-        <v>1.089786613794885e-05</v>
+        <v>0.009012078376457788</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>62.02113542173853</v>
+        <v>41.27607721850774</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[34.27120813532028, 89.77106270815679]</t>
+          <t>[6.267534150963741, 76.28462028605173]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.736578001085512e-05</v>
+        <v>0.02188785383408742</v>
       </c>
       <c r="O7" t="n">
-        <v>4.736578001085512e-05</v>
+        <v>0.02188785383408742</v>
       </c>
       <c r="P7" t="n">
-        <v>2.836553126664658</v>
+        <v>2.106974051957119</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.3082372449798885, 3.364869008349428]</t>
+          <t>[1.2516054816103486, 2.962342622303889]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.241051954068098e-14</v>
+        <v>1.046623467648722e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>4.241051954068098e-14</v>
+        <v>1.046623467648722e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>71.96295382149904</v>
+        <v>65.7373824938673</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[55.616587610932555, 88.30932003206553]</t>
+          <t>[47.70365823784806, 83.77110674988654]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.955480222193273e-11</v>
+        <v>3.179212448856106e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.955480222193273e-11</v>
+        <v>3.179212448856106e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>12.83603603603616</v>
+        <v>15.29393393393404</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.86846846846857</v>
+        <v>12.16144144144153</v>
       </c>
       <c r="Z7" t="n">
-        <v>14.80360360360374</v>
+        <v>18.42642642642655</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.40000000000022</v>
+        <v>23.01000000000016</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01247986825177205</v>
+        <v>5.557076987461329e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01247986825177205</v>
+        <v>5.557076987461329e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>37.91093042011876</v>
+        <v>60.81264233640072</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[6.489391023234674, 69.33246981700285]</t>
+          <t>[36.33074089062859, 85.29454378217285]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.01914766578739835</v>
+        <v>9.107664889596023e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01914766578739835</v>
+        <v>9.107664889596023e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>2.849132076228581</v>
+        <v>3.138447916198812</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.7547634641672718, 3.9435006882898906]</t>
+          <t>[2.6352899336418876, 3.6416058987557367]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.070964708002833e-06</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="S8" t="n">
-        <v>4.070964708002833e-06</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="T8" t="n">
-        <v>62.64069322605636</v>
+        <v>61.18457475351573</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.1171971598301, 80.16418929228261]</t>
+          <t>[45.58886762907842, 76.78028187795303]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.156276294826512e-09</v>
+        <v>4.794324937051897e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>5.156276294826512e-09</v>
+        <v>4.794324937051897e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>12.78918918918931</v>
+        <v>11.5165165165166</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.713513513513593</v>
+        <v>9.673873873873937</v>
       </c>
       <c r="Z8" t="n">
-        <v>16.86486486486502</v>
+        <v>13.35915915915925</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.91000000000014</v>
+        <v>22.18000000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.375195074260205e-06</v>
+        <v>0.0001313716597355352</v>
       </c>
       <c r="I9" t="n">
-        <v>1.375195074260205e-06</v>
+        <v>0.0001313716597355352</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>70.60374902153667</v>
+        <v>52.76420388836756</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[43.44273234789749, 97.76476569517585]</t>
+          <t>[21.982457116318187, 83.54595066041693]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.182617233894348e-06</v>
+        <v>0.001220322374552607</v>
       </c>
       <c r="O9" t="n">
-        <v>4.182617233894348e-06</v>
+        <v>0.001220322374552607</v>
       </c>
       <c r="P9" t="n">
-        <v>-3.094421592725081</v>
+        <v>2.635289933641888</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.5598427265902357, -2.6290004588599265]</t>
+          <t>[2.0315003545735797, 3.2390795127101972]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2.508282470614631e-11</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.508282470614631e-11</v>
       </c>
       <c r="T9" t="n">
-        <v>70.7951350183302</v>
+        <v>66.43459088490081</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[53.90611837568764, 87.68415166097276]</t>
+          <t>[49.93530877199129, 82.93387299781034]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.889244812986362e-11</v>
+        <v>2.387066100340007e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>7.889244812986362e-11</v>
+        <v>2.387066100340007e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>11.28300300300307</v>
+        <v>12.87727727727729</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.585965965966023</v>
+        <v>10.74586586586588</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.98004004004012</v>
+        <v>15.00868868868871</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.91000000000014</v>
+        <v>22.18000000000003</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000167853920175598</v>
+        <v>0.2187561170950825</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000167853920175598</v>
+        <v>0.2187561170950825</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.06135118178095</v>
+        <v>22.77897591923433</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[20.325471664704466, 73.79723069885743]</t>
+          <t>[-11.407747213850342, 56.965699052318996]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0009286932663901126</v>
+        <v>0.1863224131998655</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0009286932663901126</v>
+        <v>0.1863224131998655</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.830263651882697</v>
+        <v>-2.717053105807389</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.4843690292066984, -2.176158274558695]</t>
+          <t>[-5.7360010011489315, 0.3018947895341535]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.216449329102034e-11</v>
+        <v>0.0765534537153123</v>
       </c>
       <c r="S10" t="n">
-        <v>3.216449329102034e-11</v>
+        <v>0.0765534537153123</v>
       </c>
       <c r="T10" t="n">
-        <v>64.5495674868622</v>
+        <v>51.42404312597971</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[49.77115522076834, 79.32797975295605]</t>
+          <t>[32.879821154890266, 69.96826509706915]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.455191605577056e-11</v>
+        <v>1.283414841735109e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>2.455191605577056e-11</v>
+        <v>1.283414841735109e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>10.31981981981988</v>
+        <v>9.591351351351365</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.934794794794842</v>
+        <v>-1.065705705705703</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.70484484484493</v>
+        <v>20.24840840840843</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.91000000000014</v>
+        <v>22.18000000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002744090536726529</v>
+        <v>0.0002948075088474722</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002744090536726529</v>
+        <v>0.0002948075088474722</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>47.69740062186978</v>
+        <v>44.9573882972812</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[13.295633439051386, 82.09916780468816]</t>
+          <t>[16.54717622702009, 73.36760036754231]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.007651762604040213</v>
+        <v>0.002612682708968306</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007651762604040213</v>
+        <v>0.002612682708968306</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.880579450138389</v>
+        <v>-2.465474114528927</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-3.723369070921236, -2.0377898293555416]</t>
+          <t>[-3.0441057944693894, -1.886842434588464]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.514414482706172e-08</v>
+        <v>4.982259049768345e-11</v>
       </c>
       <c r="S11" t="n">
-        <v>1.514414482706172e-08</v>
+        <v>4.982259049768345e-11</v>
       </c>
       <c r="T11" t="n">
-        <v>73.65710104374222</v>
+        <v>64.31410053695684</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[54.86488297009977, 92.44931911738466]</t>
+          <t>[49.89258959514854, 78.73561147876515]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.913016660168523e-10</v>
+        <v>1.343125610731022e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>4.913016660168523e-10</v>
+        <v>1.343125610731022e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>10.50328328328335</v>
+        <v>8.703263263263274</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.430270270270316</v>
+        <v>6.660660660660668</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.57629629629638</v>
+        <v>10.74586586586588</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.91000000000014</v>
+        <v>22.18000000000003</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>9.053289895533112e-09</v>
+        <v>2.675097247051283e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>9.053289895533112e-09</v>
+        <v>2.675097247051283e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>73.4478441251764</v>
+        <v>51.75460192773059</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[47.77793413697426, 99.11775411337854]</t>
+          <t>[28.71401053205878, 74.7951933234024]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>7.014566874019579e-07</v>
+        <v>4.401552781185814e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>7.014566874019579e-07</v>
+        <v>4.401552781185814e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.138421425866927</v>
+        <v>-2.125842476303003</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.503210963220696, -1.7736318885131577]</t>
+          <t>[-2.578684660604235, -1.6730002920017708]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>2.919442465554312e-12</v>
       </c>
       <c r="S12" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>2.919442465554312e-12</v>
       </c>
       <c r="T12" t="n">
-        <v>63.67749138237657</v>
+        <v>63.49214747665061</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[50.046714217478694, 77.30826854727445]</t>
+          <t>[51.256344510742615, 75.72795044255861]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.382849556032852e-12</v>
+        <v>1.281197370417431e-13</v>
       </c>
       <c r="W12" t="n">
-        <v>3.382849556032852e-12</v>
+        <v>1.281197370417431e-13</v>
       </c>
       <c r="X12" t="n">
-        <v>7.797197197197248</v>
+        <v>7.504344344344352</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.467087087087132</v>
+        <v>5.905785785785789</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.127307307307364</v>
+        <v>9.102902902902915</v>
       </c>
     </row>
   </sheetData>
